--- a/com.AutomationFramework/src/test/resources/testData.xlsx
+++ b/com.AutomationFramework/src/test/resources/testData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
+    <sheet name="managercreds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -50,6 +51,21 @@
   </si>
   <si>
     <t>fireflink</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>mahibhai07</t>
+  </si>
+  <si>
+    <t>Bhai</t>
   </si>
 </sst>
 </file>
@@ -416,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -485,4 +501,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.AutomationFramework/src/test/resources/testData.xlsx
+++ b/com.AutomationFramework/src/test/resources/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
     <sheet name="managercreds" sheetId="2" r:id="rId2"/>
+    <sheet name="taskspagedetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +67,18 @@
   </si>
   <si>
     <t>Bhai</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Web Application</t>
   </si>
 </sst>
 </file>
@@ -507,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -550,4 +563,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.AutomationFramework/src/test/resources/testData.xlsx
+++ b/com.AutomationFramework/src/test/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="invalidcreds" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
